--- a/xnr_0429/xnr/static/doc/2019-6-01+2019-6-11.xlsx
+++ b/xnr_0429/xnr/static/doc/2019-6-01+2019-6-11.xlsx
@@ -783,7 +783,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
